--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H428"/>
+  <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12671,6 +12671,148 @@
         <v>440.5666666666667</v>
       </c>
       <c r="H428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>349.39</v>
+      </c>
+      <c r="C429" t="n">
+        <v>348.26</v>
+      </c>
+      <c r="D429" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="E429" t="n">
+        <v>337.7233333333333</v>
+      </c>
+      <c r="F429" t="n">
+        <v>337.8342857142857</v>
+      </c>
+      <c r="G429" t="n">
+        <v>429.5133333333333</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="n">
+        <v>344.15</v>
+      </c>
+      <c r="D430" t="n">
+        <v>344.8</v>
+      </c>
+      <c r="E430" t="n">
+        <v>329.2466666666667</v>
+      </c>
+      <c r="F430" t="n">
+        <v>328.5985714285715</v>
+      </c>
+      <c r="G430" t="n">
+        <v>416.0666666666667</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>339.09</v>
+      </c>
+      <c r="C431" t="n">
+        <v>347.75</v>
+      </c>
+      <c r="D431" t="n">
+        <v>336.62</v>
+      </c>
+      <c r="E431" t="n">
+        <v>317.9066666666667</v>
+      </c>
+      <c r="F431" t="n">
+        <v>325.7857142857143</v>
+      </c>
+      <c r="G431" t="n">
+        <v>432.9466666666667</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="n">
+        <v>325.4471428571428</v>
+      </c>
+      <c r="G432" t="n">
+        <v>428.38</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>336.65</v>
+      </c>
+      <c r="C433" t="n">
+        <v>348.86</v>
+      </c>
+      <c r="D433" t="n">
+        <v>337.85</v>
+      </c>
+      <c r="E433" t="n">
+        <v>335.2933333333333</v>
+      </c>
+      <c r="F433" t="n">
+        <v>326.1214285714286</v>
+      </c>
+      <c r="G433" t="n">
+        <v>426.1733333333333</v>
+      </c>
+      <c r="H433" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -12687,7 +12829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B439"/>
+  <dimension ref="A1:B444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17085,6 +17227,56 @@
       </c>
       <c r="B439" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>
@@ -17247,28 +17439,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1.283175152072095</v>
+        <v>1.362071935958711</v>
       </c>
       <c r="J2" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01843717295050618</v>
+        <v>0.02116523433235651</v>
       </c>
       <c r="M2" t="n">
-        <v>62.2084560678614</v>
+        <v>61.84248123369566</v>
       </c>
       <c r="N2" t="n">
-        <v>4307.883355043557</v>
+        <v>4277.823374636233</v>
       </c>
       <c r="O2" t="n">
-        <v>65.63446773642303</v>
+        <v>65.40507147489583</v>
       </c>
       <c r="P2" t="n">
-        <v>273.1011135992836</v>
+        <v>272.3263595022969</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17318,28 +17510,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.08432451335178376</v>
+        <v>0.0967014686803816</v>
       </c>
       <c r="J3" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007308873953795203</v>
+        <v>0.0009956528517336416</v>
       </c>
       <c r="M3" t="n">
-        <v>13.06675599622079</v>
+        <v>12.89447546902406</v>
       </c>
       <c r="N3" t="n">
-        <v>504.9612646660855</v>
+        <v>497.0813037666491</v>
       </c>
       <c r="O3" t="n">
-        <v>22.47134318784895</v>
+        <v>22.29532022121793</v>
       </c>
       <c r="P3" t="n">
-        <v>341.3686579217144</v>
+        <v>341.2488626162343</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17395,28 +17587,28 @@
         <v>0.0425</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.006698571317132595</v>
+        <v>-0.01005490528605105</v>
       </c>
       <c r="J4" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K4" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L4" t="n">
-        <v>2.638888988470978e-05</v>
+        <v>6.05483980625765e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.390616931758339</v>
+        <v>7.365197863165906</v>
       </c>
       <c r="N4" t="n">
-        <v>89.43790402205182</v>
+        <v>88.84131184633576</v>
       </c>
       <c r="O4" t="n">
-        <v>9.457161520353337</v>
+        <v>9.4255669243996</v>
       </c>
       <c r="P4" t="n">
-        <v>343.8682407573024</v>
+        <v>343.9008206378688</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17472,28 +17664,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3492333002577128</v>
+        <v>0.3288096178399312</v>
       </c>
       <c r="J5" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03821858949722334</v>
+        <v>0.03438943462825872</v>
       </c>
       <c r="M5" t="n">
-        <v>9.817289066947843</v>
+        <v>9.820734853662918</v>
       </c>
       <c r="N5" t="n">
-        <v>161.8877483211941</v>
+        <v>161.942686367351</v>
       </c>
       <c r="O5" t="n">
-        <v>12.72351163481191</v>
+        <v>12.72567037005717</v>
       </c>
       <c r="P5" t="n">
-        <v>331.7979138830092</v>
+        <v>331.9949161632549</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17549,28 +17741,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1558491955109415</v>
+        <v>0.1472402719901881</v>
       </c>
       <c r="J6" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K6" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007508178587268266</v>
+        <v>0.006859640474458639</v>
       </c>
       <c r="M6" t="n">
-        <v>10.28371459045801</v>
+        <v>10.23198991127602</v>
       </c>
       <c r="N6" t="n">
-        <v>171.5311907969259</v>
+        <v>169.9142518223306</v>
       </c>
       <c r="O6" t="n">
-        <v>13.09699166972805</v>
+        <v>13.03511610313965</v>
       </c>
       <c r="P6" t="n">
-        <v>328.5064041210167</v>
+        <v>328.5895530586483</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -17626,28 +17818,28 @@
         <v>0.0866</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03603829718853302</v>
+        <v>-0.04788076784274334</v>
       </c>
       <c r="J7" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K7" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001206042316171718</v>
+        <v>0.0021552577442987</v>
       </c>
       <c r="M7" t="n">
-        <v>5.214770554637483</v>
+        <v>5.225045904748417</v>
       </c>
       <c r="N7" t="n">
-        <v>57.21987090569426</v>
+        <v>57.22094665470456</v>
       </c>
       <c r="O7" t="n">
-        <v>7.564381726598299</v>
+        <v>7.56445283247272</v>
       </c>
       <c r="P7" t="n">
-        <v>432.5914909520401</v>
+        <v>432.7059094331881</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -17684,7 +17876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H428"/>
+  <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34444,6 +34636,200 @@
         </is>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>-41.38677298914254,174.05974443654466</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>-41.38658283372375,174.05887961996632</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>-41.38659860809824,174.05799926086144</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-41.386699884769435,174.0570883457577</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>-41.387048739322374,174.05626852212416</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>-41.38806819818023,174.05665146534915</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-41.38654607758059,174.05888545382166</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-41.38656396033824,174.05799158752484</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-41.386629927316164,174.0570477465766</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-41.386987511096116,174.05619375360305</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>-41.38799972094132,174.05651882128507</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>-41.3866833857266,174.0597763440499</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>-41.38657827274251,174.05888034387573</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>-41.38649128888,174.05797549322088</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-41.38653633890858,174.05699343353575</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>-41.386968863231786,174.05617098190353</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>-41.388085682427786,174.05668533336225</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-41.386576036967384,174.05888069873322</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>-41.38696661866883,174.0561682409736</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>-41.38806242667879,174.0566402856206</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>-41.386662159284974,174.05978390270857</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>-41.38658819958405,174.0588787683081</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>-41.38650221625109,174.05797791326663</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>-41.38667983011777,174.0570767072103</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>-41.38697108885322,174.05617369970344</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>-41.388051189222814,174.0566185180372</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -17290,7 +17290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17381,35 +17381,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17462,27 +17467,28 @@
       <c r="P2" t="n">
         <v>272.3263595022969</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.0608267349052 -41.383733514356166, 174.0580405378865 -41.39155755692652)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.0608267349052</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.38373351435617</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.0580405378865</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.39155755692652</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.0594336363959</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.38764553564134</v>
       </c>
     </row>
@@ -17533,27 +17539,28 @@
       <c r="P3" t="n">
         <v>341.2488626162343</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.05937392869512 -41.38346830794053, 174.05809737100523 -41.39151103027772)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.0593739286951</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.38346830794053</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.0580973710052</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.39151103027772</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.0587356498502</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.38748966910913</v>
       </c>
     </row>
@@ -17610,27 +17617,28 @@
       <c r="P4" t="n">
         <v>343.9008206378688</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.05731321955332 -41.383500739773915, 174.0590827306399 -41.39149045313059)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.0573132195533</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.38350073977391</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.0590827306399</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.39149045313059</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.0581979750966</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.38749559645225</v>
       </c>
     </row>
@@ -17687,27 +17695,28 @@
       <c r="P5" t="n">
         <v>331.9949161632549</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.05547088077282 -41.38391266055983, 174.05977909885698 -41.391336012607596)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.0554708807728</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.38391266055983</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.059779098857</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.3913360126076</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.0576249898149</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.38762433658371</v>
       </c>
     </row>
@@ -17764,27 +17773,28 @@
       <c r="P6" t="n">
         <v>328.5895530586483</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.05353364696705 -41.384809031671146, 174.06081836880782 -41.39077431377216)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.0535336469671</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.38480903167115</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.0608183688078</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.39077431377216</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.0571760078874</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.38779167272165</v>
       </c>
     </row>
@@ -17841,27 +17851,28 @@
       <c r="P7" t="n">
         <v>432.7059094331881</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.05241468631644 -41.3858808210926, 174.06129339994376 -41.39046439896903)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.0524146863164</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.3858808210926</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.0612933999438</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.39046439896903</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.0568540431301</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.38817261003081</v>
       </c>
     </row>

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H433"/>
+  <dimension ref="A1:H435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12813,6 +12813,62 @@
         <v>426.1733333333333</v>
       </c>
       <c r="H433" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>338.69</v>
+      </c>
+      <c r="C434" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="D434" t="n">
+        <v>350.45</v>
+      </c>
+      <c r="E434" t="n">
+        <v>363.8466666666667</v>
+      </c>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="n">
+        <v>430.5766666666667</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="n">
+        <v>342.81</v>
+      </c>
+      <c r="D435" t="n">
+        <v>349.86</v>
+      </c>
+      <c r="E435" t="n">
+        <v>343.93</v>
+      </c>
+      <c r="F435" t="n">
+        <v>326.2985714285714</v>
+      </c>
+      <c r="G435" t="n">
+        <v>432.82</v>
+      </c>
+      <c r="H435" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -12829,7 +12885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B444"/>
+  <dimension ref="A1:B446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17277,6 +17333,26 @@
       </c>
       <c r="B444" t="n">
         <v>-0.26</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -17444,28 +17520,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1.362071935958711</v>
+        <v>1.385161086164533</v>
       </c>
       <c r="J2" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02116523433235651</v>
+        <v>0.02202975377775862</v>
       </c>
       <c r="M2" t="n">
-        <v>61.84248123369566</v>
+        <v>61.71081584733648</v>
       </c>
       <c r="N2" t="n">
-        <v>4277.823374636233</v>
+        <v>4266.953836569802</v>
       </c>
       <c r="O2" t="n">
-        <v>65.40507147489583</v>
+        <v>65.32192462389486</v>
       </c>
       <c r="P2" t="n">
-        <v>272.3263595022969</v>
+        <v>272.098488253888</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17516,28 +17592,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.0967014686803816</v>
+        <v>0.1000958941612166</v>
       </c>
       <c r="J3" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009956528517336416</v>
+        <v>0.001081647925362139</v>
       </c>
       <c r="M3" t="n">
-        <v>12.89447546902406</v>
+        <v>12.82863843295642</v>
       </c>
       <c r="N3" t="n">
-        <v>497.0813037666491</v>
+        <v>494.0195325079976</v>
       </c>
       <c r="O3" t="n">
-        <v>22.29532022121793</v>
+        <v>22.22655017109038</v>
       </c>
       <c r="P3" t="n">
-        <v>341.2488626162343</v>
+        <v>341.2158911003351</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17594,28 +17670,28 @@
         <v>0.0425</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01005490528605105</v>
+        <v>-0.003734541924505982</v>
       </c>
       <c r="J4" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K4" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L4" t="n">
-        <v>6.05483980625765e-05</v>
+        <v>8.423182784045302e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>7.365197863165906</v>
+        <v>7.36069243707433</v>
       </c>
       <c r="N4" t="n">
-        <v>88.84131184633576</v>
+        <v>88.61581177895536</v>
       </c>
       <c r="O4" t="n">
-        <v>9.4255669243996</v>
+        <v>9.413597175307395</v>
       </c>
       <c r="P4" t="n">
-        <v>343.9008206378688</v>
+        <v>343.8393965777246</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17672,28 +17748,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3288096178399312</v>
+        <v>0.3417741006893404</v>
       </c>
       <c r="J5" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K5" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03438943462825872</v>
+        <v>0.03713316723455951</v>
       </c>
       <c r="M5" t="n">
-        <v>9.820734853662918</v>
+        <v>9.83892000206243</v>
       </c>
       <c r="N5" t="n">
-        <v>161.942686367351</v>
+        <v>162.5045570321405</v>
       </c>
       <c r="O5" t="n">
-        <v>12.72567037005717</v>
+        <v>12.74772752423507</v>
       </c>
       <c r="P5" t="n">
-        <v>331.9949161632549</v>
+        <v>331.8691595253454</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17750,28 +17826,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1472402719901881</v>
+        <v>0.1443950445569036</v>
       </c>
       <c r="J6" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006859640474458639</v>
+        <v>0.006628973225667356</v>
       </c>
       <c r="M6" t="n">
-        <v>10.23198991127602</v>
+        <v>10.22224558104099</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9142518223306</v>
+        <v>169.5985792817389</v>
       </c>
       <c r="O6" t="n">
-        <v>13.03511610313965</v>
+        <v>13.0230019304974</v>
       </c>
       <c r="P6" t="n">
-        <v>328.5895530586483</v>
+        <v>328.6172648304087</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17828,28 +17904,28 @@
         <v>0.0866</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04788076784274334</v>
+        <v>-0.04767449341537427</v>
       </c>
       <c r="J7" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K7" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0021552577442987</v>
+        <v>0.002158172593844765</v>
       </c>
       <c r="M7" t="n">
-        <v>5.225045904748417</v>
+        <v>5.205389122301475</v>
       </c>
       <c r="N7" t="n">
-        <v>57.22094665470456</v>
+        <v>56.9547037229793</v>
       </c>
       <c r="O7" t="n">
-        <v>7.56445283247272</v>
+        <v>7.546834019837676</v>
       </c>
       <c r="P7" t="n">
-        <v>432.7059094331881</v>
+        <v>432.7038660282386</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17887,7 +17963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H433"/>
+  <dimension ref="A1:H435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34841,6 +34917,82 @@
         </is>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>-41.386679905982106,174.05977758317462</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>-41.3865975004085,174.05887729210022</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>-41.38661415516978,174.05800270402807</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-41.38691547906838,174.0572134645917</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>-41.38807361320558,174.0566619545668</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>-41.38653409382578,174.0588873558559</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>-41.38660891358568,174.05800154318885</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>-41.3867511080301,174.05711807277996</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>-41.38697226322366,174.0561751337767</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>-41.38808503737805,174.05668408386242</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H435"/>
+  <dimension ref="A1:H438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12852,7 +12852,9 @@
           <t>2025-04-12 22:06:48+00:00</t>
         </is>
       </c>
-      <c r="B435" t="inlineStr"/>
+      <c r="B435" t="n">
+        <v>221.06</v>
+      </c>
       <c r="C435" t="n">
         <v>342.81</v>
       </c>
@@ -12871,6 +12873,92 @@
       <c r="H435" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>208.07</v>
+      </c>
+      <c r="C436" t="n">
+        <v>213.16</v>
+      </c>
+      <c r="D436" t="n">
+        <v>334.25</v>
+      </c>
+      <c r="E436" t="n">
+        <v>321.7933333333333</v>
+      </c>
+      <c r="F436" t="n">
+        <v>307.9814285714286</v>
+      </c>
+      <c r="G436" t="n">
+        <v>431.8533333333334</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>211</v>
+      </c>
+      <c r="C437" t="n">
+        <v>208.29</v>
+      </c>
+      <c r="D437" t="n">
+        <v>334.24</v>
+      </c>
+      <c r="E437" t="n">
+        <v>319.5633333333333</v>
+      </c>
+      <c r="F437" t="n">
+        <v>321.0557142857143</v>
+      </c>
+      <c r="G437" t="n">
+        <v>434.2833333333334</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="n">
+        <v>337.2</v>
+      </c>
+      <c r="E438" t="n">
+        <v>330.53</v>
+      </c>
+      <c r="F438" t="n">
+        <v>309.6285714285714</v>
+      </c>
+      <c r="G438" t="n">
+        <v>430.26</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B446"/>
+  <dimension ref="A1:B449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17353,6 +17441,36 @@
       </c>
       <c r="B446" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -17520,28 +17638,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1.385161086164533</v>
+        <v>1.183086634525237</v>
       </c>
       <c r="J2" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K2" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02202975377775862</v>
+        <v>0.01623841112987234</v>
       </c>
       <c r="M2" t="n">
-        <v>61.71081584733648</v>
+        <v>62.27407488209848</v>
       </c>
       <c r="N2" t="n">
-        <v>4266.953836569802</v>
+        <v>4309.637728742564</v>
       </c>
       <c r="O2" t="n">
-        <v>65.32192462389486</v>
+        <v>65.64783110463409</v>
       </c>
       <c r="P2" t="n">
-        <v>272.098488253888</v>
+        <v>274.1079601925209</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17592,28 +17710,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.1000958941612166</v>
+        <v>-0.07107005748305321</v>
       </c>
       <c r="J3" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001081647925362139</v>
+        <v>0.0004517238172733196</v>
       </c>
       <c r="M3" t="n">
-        <v>12.82863843295642</v>
+        <v>13.93494304189982</v>
       </c>
       <c r="N3" t="n">
-        <v>494.0195325079976</v>
+        <v>601.3815151033808</v>
       </c>
       <c r="O3" t="n">
-        <v>22.22655017109038</v>
+        <v>24.52308127261704</v>
       </c>
       <c r="P3" t="n">
-        <v>341.2158911003351</v>
+        <v>342.8965236638696</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17670,28 +17788,28 @@
         <v>0.0425</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.003734541924505982</v>
+        <v>-0.01602007615142114</v>
       </c>
       <c r="J4" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K4" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L4" t="n">
-        <v>8.423182784045302e-06</v>
+        <v>0.0001565497221427403</v>
       </c>
       <c r="M4" t="n">
-        <v>7.36069243707433</v>
+        <v>7.36827602924139</v>
       </c>
       <c r="N4" t="n">
-        <v>88.61581177895536</v>
+        <v>88.50258138100662</v>
       </c>
       <c r="O4" t="n">
-        <v>9.413597175307395</v>
+        <v>9.40758105896551</v>
       </c>
       <c r="P4" t="n">
-        <v>343.8393965777246</v>
+        <v>343.9596419052994</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17748,28 +17866,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3417741006893404</v>
+        <v>0.3178892514407232</v>
       </c>
       <c r="J5" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K5" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03713316723455951</v>
+        <v>0.03237786895007366</v>
       </c>
       <c r="M5" t="n">
-        <v>9.83892000206243</v>
+        <v>9.8843891857804</v>
       </c>
       <c r="N5" t="n">
-        <v>162.5045570321405</v>
+        <v>163.4417398675496</v>
       </c>
       <c r="O5" t="n">
-        <v>12.74772752423507</v>
+        <v>12.78443349810814</v>
       </c>
       <c r="P5" t="n">
-        <v>331.8691595253454</v>
+        <v>332.102996048404</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17826,28 +17944,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1443950445569036</v>
+        <v>0.1173877642683613</v>
       </c>
       <c r="J6" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K6" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006628973225667356</v>
+        <v>0.004384543573377586</v>
       </c>
       <c r="M6" t="n">
-        <v>10.22224558104099</v>
+        <v>10.2870470367388</v>
       </c>
       <c r="N6" t="n">
-        <v>169.5985792817389</v>
+        <v>171.2428242330863</v>
       </c>
       <c r="O6" t="n">
-        <v>13.0230019304974</v>
+        <v>13.0859781534697</v>
       </c>
       <c r="P6" t="n">
-        <v>328.6172648304087</v>
+        <v>328.8813951311798</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17904,28 +18022,28 @@
         <v>0.0866</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04767449341537427</v>
+        <v>-0.04676787382581982</v>
       </c>
       <c r="J7" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002158172593844765</v>
+        <v>0.002107969709950974</v>
       </c>
       <c r="M7" t="n">
-        <v>5.205389122301475</v>
+        <v>5.178262499490574</v>
       </c>
       <c r="N7" t="n">
-        <v>56.9547037229793</v>
+        <v>56.5731119824274</v>
       </c>
       <c r="O7" t="n">
-        <v>7.546834019837676</v>
+        <v>7.521509953621506</v>
       </c>
       <c r="P7" t="n">
-        <v>432.7038660282386</v>
+        <v>432.6949722451848</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17963,7 +18081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H435"/>
+  <dimension ref="A1:H438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34961,7 +35079,11 @@
           <t>2025-04-12 22:06:48+00:00</t>
         </is>
       </c>
-      <c r="B435" t="inlineStr"/>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>-41.38565659951932,174.0601419731934</t>
+        </is>
+      </c>
       <c r="C435" t="inlineStr">
         <is>
           <t>-41.38653409382578,174.0588873558559</t>
@@ -34990,6 +35112,124 @@
       <c r="H435" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>-41.3855435946771,174.06018221247055</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>-41.3853746206072,174.0590713816761</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>-41.38647023370133,174.0579708302083</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>-41.38656841536195,174.05701204874592</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>-41.38685082943355,174.05602684625285</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>-41.38808011462967,174.05667454820662</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>-41.38556908383833,174.06017313618662</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>-41.38533106769008,174.05907829405785</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>-41.38647014486093,174.0579708105331</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>-41.38655001129093,174.05700136814707</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>-41.38693750563923,174.05613268985715</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>-41.388092489399035,174.05669851887515</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>-41.38649644162411,174.05797663438057</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-41.38664051859503,174.0570538931241</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>-41.386861749201536,174.0560401807736</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>-41.38807200058057,174.0566588308184</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H438"/>
+  <dimension ref="A1:H439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12959,6 +12959,32 @@
       <c r="H438" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="n">
+        <v>335.66</v>
+      </c>
+      <c r="E439" t="n">
+        <v>329.57</v>
+      </c>
+      <c r="F439" t="n">
+        <v>327.2814285714285</v>
+      </c>
+      <c r="G439" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B449"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17471,6 +17497,16 @@
       </c>
       <c r="B449" t="n">
         <v>-0.3</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -17641,7 +17677,7 @@
         <v>1.183086634525237</v>
       </c>
       <c r="J2" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K2" t="n">
         <v>305</v>
@@ -17713,7 +17749,7 @@
         <v>-0.07107005748305321</v>
       </c>
       <c r="J3" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K3" t="n">
         <v>314</v>
@@ -17788,28 +17824,28 @@
         <v>0.0425</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01602007615142114</v>
+        <v>-0.01980145508144142</v>
       </c>
       <c r="J4" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001565497221427403</v>
+        <v>0.0002400197237151236</v>
       </c>
       <c r="M4" t="n">
-        <v>7.36827602924139</v>
+        <v>7.369284507998081</v>
       </c>
       <c r="N4" t="n">
-        <v>88.50258138100662</v>
+        <v>88.43903043007913</v>
       </c>
       <c r="O4" t="n">
-        <v>9.40758105896551</v>
+        <v>9.404202806728444</v>
       </c>
       <c r="P4" t="n">
-        <v>343.9596419052994</v>
+        <v>343.996731525048</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17866,28 +17902,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3178892514407232</v>
+        <v>0.3127961084216084</v>
       </c>
       <c r="J5" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K5" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03237786895007366</v>
+        <v>0.03148951893254093</v>
       </c>
       <c r="M5" t="n">
-        <v>9.8843891857804</v>
+        <v>9.885763621325138</v>
       </c>
       <c r="N5" t="n">
-        <v>163.4417398675496</v>
+        <v>163.3237000484225</v>
       </c>
       <c r="O5" t="n">
-        <v>12.78443349810814</v>
+        <v>12.77981611950745</v>
       </c>
       <c r="P5" t="n">
-        <v>332.102996048404</v>
+        <v>332.1529691522225</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17944,28 +17980,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1173877642683613</v>
+        <v>0.1152563002944135</v>
       </c>
       <c r="J6" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K6" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004384543573377586</v>
+        <v>0.004247392098231106</v>
       </c>
       <c r="M6" t="n">
-        <v>10.2870470367388</v>
+        <v>10.27396903739845</v>
       </c>
       <c r="N6" t="n">
-        <v>171.2428242330863</v>
+        <v>170.8913190505935</v>
       </c>
       <c r="O6" t="n">
-        <v>13.0859781534697</v>
+        <v>13.07254065017943</v>
       </c>
       <c r="P6" t="n">
-        <v>328.8813951311798</v>
+        <v>328.9022850161288</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18022,28 +18058,28 @@
         <v>0.0866</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04676787382581982</v>
+        <v>-0.04386875027330044</v>
       </c>
       <c r="J7" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K7" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002107969709950974</v>
+        <v>0.001861481951354493</v>
       </c>
       <c r="M7" t="n">
-        <v>5.178262499490574</v>
+        <v>5.179158253666873</v>
       </c>
       <c r="N7" t="n">
-        <v>56.5731119824274</v>
+        <v>56.53132949098647</v>
       </c>
       <c r="O7" t="n">
-        <v>7.521509953621506</v>
+        <v>7.5187319071095</v>
       </c>
       <c r="P7" t="n">
-        <v>432.6949722451848</v>
+        <v>432.6664479598531</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18081,7 +18117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H438"/>
+  <dimension ref="A1:H439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35233,6 +35269,40 @@
         </is>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>-41.38648276020008,174.05797360440528</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>-41.38663259576827,174.05704929518708</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>-41.386978779085055,174.05618309057098</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>-41.38811014338212,174.0567327157293</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H439"/>
+  <dimension ref="A1:H440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12985,6 +12985,32 @@
       <c r="H439" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="E440" t="n">
+        <v>319.89</v>
+      </c>
+      <c r="F440" t="n">
+        <v>314.3457142857143</v>
+      </c>
+      <c r="G440" t="n">
+        <v>433.45</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12999,7 +13025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17507,6 +17533,16 @@
       </c>
       <c r="B450" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -17677,7 +17713,7 @@
         <v>1.183086634525237</v>
       </c>
       <c r="J2" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K2" t="n">
         <v>305</v>
@@ -17749,7 +17785,7 @@
         <v>-0.07107005748305321</v>
       </c>
       <c r="J3" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K3" t="n">
         <v>314</v>
@@ -17824,28 +17860,28 @@
         <v>0.0425</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01980145508144142</v>
+        <v>-0.02594430882051379</v>
       </c>
       <c r="J4" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002400197237151236</v>
+        <v>0.0004123981372561314</v>
       </c>
       <c r="M4" t="n">
-        <v>7.369284507998081</v>
+        <v>7.381408376526831</v>
       </c>
       <c r="N4" t="n">
-        <v>88.43903043007913</v>
+        <v>88.61080984175196</v>
       </c>
       <c r="O4" t="n">
-        <v>9.404202806728444</v>
+        <v>9.413331495371443</v>
       </c>
       <c r="P4" t="n">
-        <v>343.996731525048</v>
+        <v>344.057404754595</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17902,28 +17938,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3127961084216084</v>
+        <v>0.3030499877300339</v>
       </c>
       <c r="J5" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K5" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03148951893254093</v>
+        <v>0.02959677946927486</v>
       </c>
       <c r="M5" t="n">
-        <v>9.885763621325138</v>
+        <v>9.909856722859487</v>
       </c>
       <c r="N5" t="n">
-        <v>163.3237000484225</v>
+        <v>163.9088592107705</v>
       </c>
       <c r="O5" t="n">
-        <v>12.77981611950745</v>
+        <v>12.80268953035925</v>
       </c>
       <c r="P5" t="n">
-        <v>332.1529691522225</v>
+        <v>332.2492694481274</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17980,28 +18016,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1152563002944135</v>
+        <v>0.1071052712097375</v>
       </c>
       <c r="J6" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K6" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004247392098231106</v>
+        <v>0.003673441071589956</v>
       </c>
       <c r="M6" t="n">
-        <v>10.27396903739845</v>
+        <v>10.29137575137165</v>
       </c>
       <c r="N6" t="n">
-        <v>170.8913190505935</v>
+        <v>171.205141443053</v>
       </c>
       <c r="O6" t="n">
-        <v>13.07254065017943</v>
+        <v>13.08453825868735</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9022850161288</v>
+        <v>328.9827485960928</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18058,28 +18094,28 @@
         <v>0.0866</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04386875027330044</v>
+        <v>-0.04297434594756933</v>
       </c>
       <c r="J7" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K7" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001861481951354493</v>
+        <v>0.001795340153183056</v>
       </c>
       <c r="M7" t="n">
-        <v>5.179158253666873</v>
+        <v>5.170975405258867</v>
       </c>
       <c r="N7" t="n">
-        <v>56.53132949098647</v>
+        <v>56.40690028764663</v>
       </c>
       <c r="O7" t="n">
-        <v>7.5187319071095</v>
+        <v>7.510452735198234</v>
       </c>
       <c r="P7" t="n">
-        <v>432.6664479598531</v>
+        <v>432.657584037731</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18117,7 +18153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H439"/>
+  <dimension ref="A1:H440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35303,6 +35339,40 @@
         </is>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>-41.38643913955507,174.0579639439085</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>-41.386552707253564,174.05700293271872</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>-41.38689302158968,174.05607836864525</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>-41.38808824565155,174.05669029848025</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H440"/>
+  <dimension ref="A1:H443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12885,9 +12885,7 @@
       <c r="B436" t="n">
         <v>208.07</v>
       </c>
-      <c r="C436" t="n">
-        <v>213.16</v>
-      </c>
+      <c r="C436" t="inlineStr"/>
       <c r="D436" t="n">
         <v>334.25</v>
       </c>
@@ -12915,9 +12913,7 @@
       <c r="B437" t="n">
         <v>211</v>
       </c>
-      <c r="C437" t="n">
-        <v>208.29</v>
-      </c>
+      <c r="C437" t="inlineStr"/>
       <c r="D437" t="n">
         <v>334.24</v>
       </c>
@@ -13009,6 +13005,90 @@
         <v>433.45</v>
       </c>
       <c r="H440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="n">
+        <v>333.11</v>
+      </c>
+      <c r="E441" t="n">
+        <v>315.8266666666667</v>
+      </c>
+      <c r="F441" t="n">
+        <v>320.1014285714285</v>
+      </c>
+      <c r="G441" t="n">
+        <v>430.7366666666667</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>205.52</v>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="n">
+        <v>333.62</v>
+      </c>
+      <c r="E442" t="n">
+        <v>314.2266666666667</v>
+      </c>
+      <c r="F442" t="n">
+        <v>321.8857142857143</v>
+      </c>
+      <c r="G442" t="n">
+        <v>431.0766666666667</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>235.65</v>
+      </c>
+      <c r="C443" t="n">
+        <v>327.29</v>
+      </c>
+      <c r="D443" t="n">
+        <v>346.59</v>
+      </c>
+      <c r="E443" t="n">
+        <v>331.3133333333333</v>
+      </c>
+      <c r="F443" t="n">
+        <v>330.28</v>
+      </c>
+      <c r="G443" t="n">
+        <v>439.1933333333334</v>
+      </c>
+      <c r="H443" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13025,7 +13105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:B454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17543,6 +17623,36 @@
       </c>
       <c r="B451" t="n">
         <v>-0.06</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -17710,28 +17820,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1.183086634525237</v>
+        <v>1.062324205251951</v>
       </c>
       <c r="J2" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01623841112987234</v>
+        <v>0.01320727049824699</v>
       </c>
       <c r="M2" t="n">
-        <v>62.27407488209848</v>
+        <v>62.54727862294655</v>
       </c>
       <c r="N2" t="n">
-        <v>4309.637728742564</v>
+        <v>4328.148430191354</v>
       </c>
       <c r="O2" t="n">
-        <v>65.64783110463409</v>
+        <v>65.78866490658824</v>
       </c>
       <c r="P2" t="n">
-        <v>274.1079601925209</v>
+        <v>275.3231238182998</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17782,28 +17892,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.07107005748305321</v>
+        <v>0.08907407679256445</v>
       </c>
       <c r="J3" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004517238172733196</v>
+        <v>0.0008617037810016992</v>
       </c>
       <c r="M3" t="n">
-        <v>13.93494304189982</v>
+        <v>12.85856132774298</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3815151033808</v>
+        <v>493.3039895762046</v>
       </c>
       <c r="O3" t="n">
-        <v>24.52308127261704</v>
+        <v>22.21044775722013</v>
       </c>
       <c r="P3" t="n">
-        <v>342.8965236638696</v>
+        <v>341.3255267576949</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17860,28 +17970,28 @@
         <v>0.0425</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02594430882051379</v>
+        <v>-0.03389678719170849</v>
       </c>
       <c r="J4" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K4" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004123981372561314</v>
+        <v>0.0007110590873655731</v>
       </c>
       <c r="M4" t="n">
-        <v>7.381408376526831</v>
+        <v>7.383107792380312</v>
       </c>
       <c r="N4" t="n">
-        <v>88.61080984175196</v>
+        <v>88.47733748710951</v>
       </c>
       <c r="O4" t="n">
-        <v>9.413331495371443</v>
+        <v>9.406239285022973</v>
       </c>
       <c r="P4" t="n">
-        <v>344.057404754595</v>
+        <v>344.1360272803793</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17938,28 +18048,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3030499877300339</v>
+        <v>0.2753593654878275</v>
       </c>
       <c r="J5" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K5" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02959677946927486</v>
+        <v>0.02449146473723429</v>
       </c>
       <c r="M5" t="n">
-        <v>9.909856722859487</v>
+        <v>9.974518453693161</v>
       </c>
       <c r="N5" t="n">
-        <v>163.9088592107705</v>
+        <v>165.8274855594678</v>
       </c>
       <c r="O5" t="n">
-        <v>12.80268953035925</v>
+        <v>12.87740212773787</v>
       </c>
       <c r="P5" t="n">
-        <v>332.2492694481274</v>
+        <v>332.5233846960388</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18016,28 +18126,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1071052712097375</v>
+        <v>0.09661378240193309</v>
       </c>
       <c r="J6" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003673441071589956</v>
+        <v>0.003027166519417368</v>
       </c>
       <c r="M6" t="n">
-        <v>10.29137575137165</v>
+        <v>10.27290049577791</v>
       </c>
       <c r="N6" t="n">
-        <v>171.205141443053</v>
+        <v>170.5506087320153</v>
       </c>
       <c r="O6" t="n">
-        <v>13.08453825868735</v>
+        <v>13.05950262192306</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9827485960928</v>
+        <v>329.0864851476507</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18094,28 +18204,28 @@
         <v>0.0866</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04297434594756933</v>
+        <v>-0.04004036919203287</v>
       </c>
       <c r="J7" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K7" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001795340153183056</v>
+        <v>0.001578823492982107</v>
       </c>
       <c r="M7" t="n">
-        <v>5.170975405258867</v>
+        <v>5.154056598436332</v>
       </c>
       <c r="N7" t="n">
-        <v>56.40690028764663</v>
+        <v>56.14961110394202</v>
       </c>
       <c r="O7" t="n">
-        <v>7.510452735198234</v>
+        <v>7.493304418208433</v>
       </c>
       <c r="P7" t="n">
-        <v>432.657584037731</v>
+        <v>432.6283721052597</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18153,7 +18263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H440"/>
+  <dimension ref="A1:H443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35198,11 +35308,7 @@
           <t>-41.3855435946771,174.06018221247055</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>-41.3853746206072,174.0590713816761</t>
-        </is>
-      </c>
+      <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
           <t>-41.38647023370133,174.0579708302083</t>
@@ -35240,11 +35346,7 @@
           <t>-41.38556908383833,174.06017313618662</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>-41.38533106769008,174.05907829405785</t>
-        </is>
-      </c>
+      <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
           <t>-41.38647014486093,174.0579708105331</t>
@@ -35368,6 +35470,120 @@
         </is>
       </c>
       <c r="H440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>-41.386460105893775,174.05796858724133</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>-41.38651917277778,174.05698347137258</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>-41.38693117918886,174.05612496437473</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>-41.388074428005524,174.05666353288183</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>-41.385521411276805,174.0601901116199</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>-41.386464636755065,174.05796959067382</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>-41.386505968061094,174.05697580817375</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>-41.38694300813529,174.05613940917763</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>-41.38807615945537,174.05666688680142</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>-41.38578352333929,174.0600967774156</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>-41.38639529690099,174.05890938533906</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>-41.38657986277178,174.05799510938851</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>-41.38664698340143,174.0570576449138</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>-41.38699865814126,174.05620736574255</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>-41.38811749354702,174.05674695346346</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H443"/>
+  <dimension ref="A1:H444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13091,6 +13091,36 @@
       <c r="H443" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>228.86</v>
+      </c>
+      <c r="C444" t="n">
+        <v>345.34</v>
+      </c>
+      <c r="D444" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="E444" t="n">
+        <v>330.1666666666667</v>
+      </c>
+      <c r="F444" t="n">
+        <v>316.9614285714285</v>
+      </c>
+      <c r="G444" t="n">
+        <v>426.1366666666667</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13105,7 +13135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B454"/>
+  <dimension ref="A1:B455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17653,6 +17683,16 @@
       </c>
       <c r="B454" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -18263,7 +18303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H443"/>
+  <dimension ref="A1:H444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35589,6 +35629,48 @@
         </is>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>-41.38572445461385,174.06011781097567</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>-41.38655671987026,174.05888376470116</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>-41.38654974587237,174.05798843949177</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>-41.386637520025204,174.0570521529325</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>-41.386910362511486,174.05609954431006</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>-41.388051002497676,174.05661815634025</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -17860,28 +17860,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1.062324205251951</v>
+        <v>1.009363423807778</v>
       </c>
       <c r="J2" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K2" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01320727049824699</v>
+        <v>0.01198707786878916</v>
       </c>
       <c r="M2" t="n">
-        <v>62.54727862294655</v>
+        <v>62.63882457225535</v>
       </c>
       <c r="N2" t="n">
-        <v>4328.148430191354</v>
+        <v>4331.712154972483</v>
       </c>
       <c r="O2" t="n">
-        <v>65.78866490658824</v>
+        <v>65.81574397492201</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3231238182998</v>
+        <v>275.857969689214</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17932,28 +17932,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.08907407679256445</v>
+        <v>0.09020180540524125</v>
       </c>
       <c r="J3" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K3" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008617037810016992</v>
+        <v>0.0008902761772249246</v>
       </c>
       <c r="M3" t="n">
-        <v>12.85856132774298</v>
+        <v>12.82110365064997</v>
       </c>
       <c r="N3" t="n">
-        <v>493.3039895762046</v>
+        <v>491.7420494236907</v>
       </c>
       <c r="O3" t="n">
-        <v>22.21044775722013</v>
+        <v>22.17525759543033</v>
       </c>
       <c r="P3" t="n">
-        <v>341.3255267576949</v>
+        <v>341.314277563064</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18010,28 +18010,28 @@
         <v>0.0425</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03389678719170849</v>
+        <v>-0.03392276005376992</v>
       </c>
       <c r="J4" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K4" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007110590873655731</v>
+        <v>0.0007159254030334461</v>
       </c>
       <c r="M4" t="n">
-        <v>7.383107792380312</v>
+        <v>7.365901131183545</v>
       </c>
       <c r="N4" t="n">
-        <v>88.47733748710951</v>
+        <v>88.2696511914157</v>
       </c>
       <c r="O4" t="n">
-        <v>9.406239285022973</v>
+        <v>9.395192983191761</v>
       </c>
       <c r="P4" t="n">
-        <v>344.1360272803793</v>
+        <v>344.1362855875854</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18088,28 +18088,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2753593654878275</v>
+        <v>0.2708762461933857</v>
       </c>
       <c r="J5" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K5" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02449146473723429</v>
+        <v>0.02381142650588208</v>
       </c>
       <c r="M5" t="n">
-        <v>9.974518453693161</v>
+        <v>9.973172283860936</v>
       </c>
       <c r="N5" t="n">
-        <v>165.8274855594678</v>
+        <v>165.6495841924234</v>
       </c>
       <c r="O5" t="n">
-        <v>12.87740212773787</v>
+        <v>12.8704927719347</v>
       </c>
       <c r="P5" t="n">
-        <v>332.5233846960388</v>
+        <v>332.5679898922849</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18166,28 +18166,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09661378240193309</v>
+        <v>0.08991521808836896</v>
       </c>
       <c r="J6" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K6" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003027166519417368</v>
+        <v>0.002628694261258557</v>
       </c>
       <c r="M6" t="n">
-        <v>10.27290049577791</v>
+        <v>10.2828160825685</v>
       </c>
       <c r="N6" t="n">
-        <v>170.5506087320153</v>
+        <v>170.6480935446702</v>
       </c>
       <c r="O6" t="n">
-        <v>13.05950262192306</v>
+        <v>13.06323442125533</v>
       </c>
       <c r="P6" t="n">
-        <v>329.0864851476507</v>
+        <v>329.1530825338676</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18244,28 +18244,28 @@
         <v>0.0866</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04004036919203287</v>
+        <v>-0.04254381702928589</v>
       </c>
       <c r="J7" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K7" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001578823492982107</v>
+        <v>0.001788872955245324</v>
       </c>
       <c r="M7" t="n">
-        <v>5.154056598436332</v>
+        <v>5.155953860717716</v>
       </c>
       <c r="N7" t="n">
-        <v>56.14961110394202</v>
+        <v>56.0874714125347</v>
       </c>
       <c r="O7" t="n">
-        <v>7.493304418208433</v>
+        <v>7.489156922680596</v>
       </c>
       <c r="P7" t="n">
-        <v>432.6283721052597</v>
+        <v>432.6533602257554</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0352/nzd0352.xlsx
+++ b/data/nzd0352/nzd0352.xlsx
@@ -17856,9 +17856,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>1.009363423807778</v>
       </c>
@@ -17928,9 +17934,15 @@
       <c r="E3" t="n">
         <v>0.2027109168056687</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0331</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1599</v>
+      </c>
       <c r="I3" t="n">
         <v>0.09020180540524125</v>
       </c>
@@ -18001,13 +18013,13 @@
         <v>0.4004243355820402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0363</v>
+        <v>0.045</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0425</v>
+        <v>0.0784</v>
       </c>
       <c r="I4" t="n">
         <v>-0.03392276005376992</v>
@@ -18079,13 +18091,13 @@
         <v>0.6017902536291363</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0296</v>
+        <v>0.0439</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0316</v>
+        <v>0.0554</v>
       </c>
       <c r="I5" t="n">
         <v>0.2708885733998228</v>
@@ -18157,13 +18169,13 @@
         <v>0.8036776378623427</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0336</v>
+        <v>0.0445</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0401</v>
+        <v>0.0915</v>
       </c>
       <c r="I6" t="n">
         <v>0.08994097393159681</v>
@@ -18235,13 +18247,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.16</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0648</v>
+        <v>0.0844</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0866</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>-0.042528886587638</v>
